--- a/analisis-y-visualizacion-de-data/Documentacion.xlsx
+++ b/analisis-y-visualizacion-de-data/Documentacion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cursos\EscuelaDeAnalistas\analisis-y-visualizacion-de-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C18B51-F4E2-48FA-B2A0-04AE2BC6C80F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B28675-58C5-4F60-BC92-6895414576E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Recomendaciones para presentar la data</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>Cracion e Importacion de Data 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -993,9 +996,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{617FC558-7E51-4C01-9667-0B116EF7C91A}">
-  <dimension ref="A2:A74"/>
+  <dimension ref="A2:H77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
       <selection activeCell="H77" sqref="H77"/>
     </sheetView>
   </sheetViews>
@@ -1007,38 +1010,43 @@
       </c>
     </row>
     <row r="3" spans="1:1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="65" spans="1:1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="74" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H77" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
